--- a/plate_list.xlsx
+++ b/plate_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MertC\Downloads\NewHomework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad750d1f5c33cc28/Belgeler/PlateCodePrediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48632537-E8A5-4B75-B171-88604F8F0E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -679,7 +679,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
